--- a/Resoconti/Campioni Università Reggio.xlsx
+++ b/Resoconti/Campioni Università Reggio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Documents/GitHub/Martello-Strumentato/Resoconti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504DD73-B2F5-0449-9256-5F50DCC0DF9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C90A8B-2140-274D-A5EC-72C30153BB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24540" windowHeight="20920" xr2:uid="{37062D32-3C14-0245-B3E2-25EDF7224775}"/>
+    <workbookView xWindow="25840" yWindow="460" windowWidth="10000" windowHeight="20960" xr2:uid="{37062D32-3C14-0245-B3E2-25EDF7224775}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -53,19 +53,19 @@
     <t>Altezza</t>
   </si>
   <si>
-    <t>AC6D_11_0.2%</t>
-  </si>
-  <si>
-    <t>AC6D_10_0.2%</t>
-  </si>
-  <si>
-    <t>AC6D_8_0.2%</t>
-  </si>
-  <si>
     <t>Diametro</t>
   </si>
   <si>
     <t>Massa [Kg]</t>
+  </si>
+  <si>
+    <t>AC6D_11_2%</t>
+  </si>
+  <si>
+    <t>AC6D_10_2%</t>
+  </si>
+  <si>
+    <t>AC6D_8_2%</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -454,6 +454,9 @@
       <c r="B3">
         <v>0.58599999999999997</v>
       </c>
+      <c r="C3">
+        <v>0.32</v>
+      </c>
       <c r="D3">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -465,6 +468,9 @@
       <c r="B4">
         <v>0.54100000000000004</v>
       </c>
+      <c r="C4">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="D4">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -476,38 +482,50 @@
       <c r="B5">
         <v>0.60699999999999998</v>
       </c>
+      <c r="C5">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="D5">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0.63900000000000001</v>
       </c>
+      <c r="C6">
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="D6">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0.63400000000000001</v>
       </c>
+      <c r="C7">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="D7">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.65800000000000003</v>
+      </c>
+      <c r="C8">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D8">
         <v>9.8000000000000004E-2</v>

--- a/Resoconti/Campioni Università Reggio.xlsx
+++ b/Resoconti/Campioni Università Reggio.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Documents/GitHub/Martello-Strumentato/Resoconti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C90A8B-2140-274D-A5EC-72C30153BB5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261677B2-ABC4-D744-9138-20C0CC8AEF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25840" yWindow="460" windowWidth="10000" windowHeight="20960" xr2:uid="{37062D32-3C14-0245-B3E2-25EDF7224775}"/>
+    <workbookView xWindow="9880" yWindow="500" windowWidth="25300" windowHeight="20940" xr2:uid="{37062D32-3C14-0245-B3E2-25EDF7224775}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Campioni Univertità di Reggio Calabria</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Altezza</t>
-  </si>
-  <si>
-    <t>Diametro</t>
-  </si>
-  <si>
     <t>Massa [Kg]</t>
   </si>
   <si>
@@ -66,6 +60,24 @@
   </si>
   <si>
     <t>AC6D_8_2%</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Massimo di Acc Plastica</t>
+  </si>
+  <si>
+    <t>S* 10^6</t>
+  </si>
+  <si>
+    <t>Diametro [m]</t>
+  </si>
+  <si>
+    <t>Altezza [m]</t>
+  </si>
+  <si>
+    <t>f0 [Hz]</t>
   </si>
 </sst>
 </file>
@@ -101,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -417,37 +432,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9FE7E5-6B75-174B-B39F-7FD82E026990}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -455,13 +488,25 @@
         <v>0.58599999999999997</v>
       </c>
       <c r="C3">
-        <v>0.32</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D3">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f>(283.013916015625+254.39453125+260.75439453125)/3</f>
+        <v>266.05428059895831</v>
+      </c>
+      <c r="F3">
+        <f>(2*PI()*E3)^2*B3/((D3/2)^2*PI())/1000000</f>
+        <v>217.09799947406674</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="0">(2*PI()*E3)^2*B3/((D3/2)^2*PI())/1000000*C3</f>
+        <v>6.9471359831701358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -469,13 +514,25 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="C4">
-        <v>0.28999999999999998</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f>(190.8+187.6+165.3)/3</f>
+        <v>181.23333333333335</v>
+      </c>
+      <c r="F4">
+        <f>(2*PI()*E4)^2*B4/((D4/2)^2*PI())/1000000</f>
+        <v>93.001751060163883</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2.6970507807447528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -488,10 +545,22 @@
       <c r="D5">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>(257.574462890625+187.615966796875+257.574462890625)/3</f>
+        <v>234.25496419270834</v>
+      </c>
+      <c r="F5">
+        <f>(2*PI()*E5)^2*B5/((D5/2)^2*PI())/1000000</f>
+        <v>174.33476512708069</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>5.5787124840665818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.63900000000000001</v>
@@ -502,10 +571,22 @@
       <c r="D6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f>(260.75439453125+184.43603515625+193.975830078125)/3</f>
+        <v>213.055419921875</v>
+      </c>
+      <c r="F6">
+        <f>(2*PI()*E6)^2*B6/((D6/2)^2*PI())/1000000</f>
+        <v>151.81117285598052</v>
+      </c>
+      <c r="G6">
+        <f>(2*PI()*E6)^2*B6/((D6/2)^2*PI())/1000000*C6</f>
+        <v>5.4652022228152983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.63400000000000001</v>
@@ -516,10 +597,22 @@
       <c r="D7">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f>(184.43603515625+187.615966796875+193.975830078125)/3</f>
+        <v>188.67594401041666</v>
+      </c>
+      <c r="F7">
+        <f>(2*PI()*E7)^2*B7/((D7/2)^2*PI())/1000000</f>
+        <v>118.12451137005181</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G8" si="1">(2*PI()*E7)^2*B7/((D7/2)^2*PI())/1000000*C7</f>
+        <v>4.1343578979518139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.65800000000000003</v>
@@ -530,8 +623,23 @@
       <c r="D8">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="E8">
+        <f>(260.75439453125+260.75439453125+263.934326171875)/3</f>
+        <v>261.81437174479169</v>
+      </c>
+      <c r="F8">
+        <f>(2*PI()*E8)^2*B8/((D8/2)^2*PI())/1000000</f>
+        <v>236.06443532921273</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>8.7343841071808708</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>